--- a/Server/masterdata/ManualTests/Megoldókulcsok.xlsx
+++ b/Server/masterdata/ManualTests/Megoldókulcsok.xlsx
@@ -756,366 +756,366 @@
     </row>
     <row r="2" ht="27" customHeight="1">
       <c r="A2" s="12" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H2" s="14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="H3" s="3" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>34</v>
-      </c>
       <c r="D6" s="2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="1" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>99</v>
-      </c>
       <c r="H8" s="3" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
       <c r="A9" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>73</v>
-      </c>
       <c r="G9" s="2" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>38</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="1" t="n">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>53</v>
-      </c>
       <c r="F15" s="2" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
@@ -1123,129 +1123,129 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>50</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="1" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>64</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="1" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>82</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="1" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" thickBot="1">
@@ -1256,22 +1256,22 @@
         <v>71</v>
       </c>
       <c r="C21" s="16" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D21" s="16" t="n">
         <v>82</v>
       </c>
       <c r="E21" s="16" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="16" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G21" s="16" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H21" s="17" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" thickBot="1">
@@ -1384,25 +1384,25 @@
     </row>
     <row r="2" ht="27" customHeight="1">
       <c r="A2" s="12" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="n">
         <v>14</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>93</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>27</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H2" s="14" t="n">
         <v>21</v>
@@ -1410,285 +1410,285 @@
     </row>
     <row r="3" ht="27" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>64</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="1" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>72</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>50</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>91</v>
-      </c>
       <c r="C6" s="2" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>89</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>39</v>
-      </c>
       <c r="H8" s="3" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
       <c r="A9" s="1" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="1" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="1" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>63</v>
-      </c>
       <c r="F13" s="2" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>80</v>
@@ -1696,80 +1696,80 @@
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="1" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
@@ -1777,129 +1777,129 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="1" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>79</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>82</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>47</v>
-      </c>
       <c r="C20" s="2" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>82</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="15" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>71</v>
       </c>
       <c r="C21" s="16" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D21" s="16" t="n">
         <v>36</v>
       </c>
       <c r="E21" s="16" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="16" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G21" s="16" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H21" s="17" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" thickBot="1">
